--- a/API's/API endpoint.xlsx
+++ b/API's/API endpoint.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>API endpoints</t>
   </si>
@@ -119,6 +119,18 @@
     "email": "Pokhara",
     "phoneNumber": "9815158175"
 }</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/kinMel/verify-account?email=suman.yhhits@gmail.com&amp;otp=927583</t>
+  </si>
+  <si>
+    <t>PUT</t>
+  </si>
+  <si>
+    <t>OTP verified.Now you can login</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/kinMel/regenerate-otp?email=dssuman222@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -163,12 +175,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -471,16 +489,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.5546875" customWidth="1"/>
-    <col min="2" max="2" width="21.21875" customWidth="1"/>
+    <col min="1" max="1" width="74.88671875" customWidth="1"/>
+    <col min="2" max="2" width="48.88671875" customWidth="1"/>
     <col min="3" max="3" width="48" customWidth="1"/>
     <col min="4" max="4" width="91.33203125" customWidth="1"/>
   </cols>
@@ -525,8 +543,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="273.60000000000002" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
       <c r="B4" t="s">
@@ -539,9 +557,37 @@
         <v>12</v>
       </c>
     </row>
+    <row r="5" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C9" s="2"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A4" r:id="rId1"/>
+    <hyperlink ref="A6" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/API's/API endpoint.xlsx
+++ b/API's/API endpoint.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\AndroidStudioProjects\KinMel\API's\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="288" yWindow="384" windowWidth="22692" windowHeight="9012"/>
+    <workbookView xWindow="285" yWindow="390" windowWidth="22695" windowHeight="9015"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -136,7 +141,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -175,18 +180,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -197,6 +211,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -245,7 +262,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -280,7 +297,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -491,106 +508,111 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="74.88671875" customWidth="1"/>
-    <col min="2" max="2" width="48.88671875" customWidth="1"/>
-    <col min="3" max="3" width="48" customWidth="1"/>
-    <col min="4" max="4" width="91.33203125" customWidth="1"/>
+    <col min="1" max="1" width="30.5703125" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" customWidth="1"/>
+    <col min="3" max="3" width="33" customWidth="1"/>
+    <col min="4" max="4" width="40.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="409.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4" ht="409.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1" t="s">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:4" s="2" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="C5" s="5"/>
+      <c r="D5" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:4" s="2" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-    </row>
-    <row r="8" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C9" s="2"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C9" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A6" r:id="rId1"/>
+    <hyperlink ref="A4" r:id="rId2"/>
+    <hyperlink ref="A5" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -600,7 +622,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" customWidth="1"/>
+  </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -612,7 +638,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
